--- a/biology/Médecine/Casa_Sollievo_della_Sofferenza/Casa_Sollievo_della_Sofferenza.xlsx
+++ b/biology/Médecine/Casa_Sollievo_della_Sofferenza/Casa_Sollievo_della_Sofferenza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Casa Sollievo della Sofferenza (« maison pour soulager la souffrance » en italien) est un hôpital privé de San Giovanni Rotondo, en Italie, fondé par Saint Padre Pio de Pietrelcina.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inauguré le 5 mai 1956, l'hôpital a adopté des technologies modernes et est considéré comme l'un des hôpitaux les plus efficaces dans l'Italie et l'Europe. Il est connu pour son hygiène exceptionnelle. Le bâtiment est situé dans la partie haute de la ville.
 Dirigé par des capucins.
